--- a/rawdata/LightCombine_MAIN.xlsx
+++ b/rawdata/LightCombine_MAIN.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:E9437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rawdata/LightCombine_MAIN.xlsx
+++ b/rawdata/LightCombine_MAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:E9437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">COUNTIF(A:A,"&lt;="&amp;D4)-COUNTIF(A:A,"&lt;="&amp;D3)</f>
+        <f>COUNTIF(A:A,"&lt;="&amp;D4)-COUNTIF(A:A,"&lt;="&amp;D3)</f>
         <v>242</v>
       </c>
     </row>
@@ -425,7 +425,7 @@
         <v>80</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D5)-COUNTIF(A:A,"&lt;="&amp;D4)</f>
         <v>210</v>
       </c>
     </row>
@@ -437,7 +437,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D6)-COUNTIF(A:A,"&lt;="&amp;D5)</f>
         <v>162</v>
       </c>
     </row>
@@ -449,7 +449,7 @@
         <v>120</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D7)-COUNTIF(A:A,"&lt;="&amp;D6)</f>
         <v>176</v>
       </c>
     </row>
@@ -461,7 +461,7 @@
         <v>140</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D8)-COUNTIF(A:A,"&lt;="&amp;D7)</f>
         <v>279</v>
       </c>
     </row>
@@ -473,7 +473,7 @@
         <v>160</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D9)-COUNTIF(A:A,"&lt;="&amp;D8)</f>
         <v>496</v>
       </c>
     </row>
@@ -485,7 +485,7 @@
         <v>180</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D10)-COUNTIF(A:A,"&lt;="&amp;D9)</f>
         <v>564</v>
       </c>
     </row>
@@ -497,7 +497,7 @@
         <v>200</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D11)-COUNTIF(A:A,"&lt;="&amp;D10)</f>
         <v>466</v>
       </c>
     </row>
@@ -509,7 +509,7 @@
         <v>220</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D12)-COUNTIF(A:A,"&lt;="&amp;D11)</f>
         <v>365</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>240</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D13)-COUNTIF(A:A,"&lt;="&amp;D12)</f>
         <v>447</v>
       </c>
     </row>
@@ -533,7 +533,7 @@
         <v>260</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D14)-COUNTIF(A:A,"&lt;="&amp;D13)</f>
         <v>252</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
         <v>280</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D15)-COUNTIF(A:A,"&lt;="&amp;D14)</f>
         <v>336</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
         <v>300</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D16)-COUNTIF(A:A,"&lt;="&amp;D15)</f>
         <v>339</v>
       </c>
     </row>
@@ -569,7 +569,7 @@
         <v>320</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D17)-COUNTIF(A:A,"&lt;="&amp;D16)</f>
         <v>198</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <v>340</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D18)-COUNTIF(A:A,"&lt;="&amp;D17)</f>
         <v>188</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
         <v>360</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D19)-COUNTIF(A:A,"&lt;="&amp;D18)</f>
         <v>155</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>380</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D20)-COUNTIF(A:A,"&lt;="&amp;D19)</f>
         <v>102</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>400</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D21)-COUNTIF(A:A,"&lt;="&amp;D20)</f>
         <v>81</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>420</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D22)-COUNTIF(A:A,"&lt;="&amp;D21)</f>
         <v>82</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>440</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D23)-COUNTIF(A:A,"&lt;="&amp;D22)</f>
         <v>73</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>460</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D24)-COUNTIF(A:A,"&lt;="&amp;D23)</f>
         <v>40</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>480</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D25)-COUNTIF(A:A,"&lt;="&amp;D24)</f>
         <v>41</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>500</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D26)-COUNTIF(A:A,"&lt;="&amp;D25)</f>
         <v>46</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>520</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D27)-COUNTIF(A:A,"&lt;="&amp;D26)</f>
         <v>37</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>540</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D28)-COUNTIF(A:A,"&lt;="&amp;D27)</f>
         <v>40</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>560</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D29)-COUNTIF(A:A,"&lt;="&amp;D28)</f>
         <v>40</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>580</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D30)-COUNTIF(A:A,"&lt;="&amp;D29)</f>
         <v>38</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
         <v>600</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D31)-COUNTIF(A:A,"&lt;="&amp;D30)</f>
         <v>26</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>620</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D32)-COUNTIF(A:A,"&lt;="&amp;D31)</f>
         <v>39</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>640</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D33)-COUNTIF(A:A,"&lt;="&amp;D32)</f>
         <v>34</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>660</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D34)-COUNTIF(A:A,"&lt;="&amp;D33)</f>
         <v>27</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>680</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D35)-COUNTIF(A:A,"&lt;="&amp;D34)</f>
         <v>51</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>700</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D36)-COUNTIF(A:A,"&lt;="&amp;D35)</f>
         <v>31</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>720</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D37)-COUNTIF(A:A,"&lt;="&amp;D36)</f>
         <v>17</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
         <v>740</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D38)-COUNTIF(A:A,"&lt;="&amp;D37)</f>
         <v>26</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>760</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D39)-COUNTIF(A:A,"&lt;="&amp;D38)</f>
         <v>22</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>780</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D40)-COUNTIF(A:A,"&lt;="&amp;D39)</f>
         <v>28</v>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>800</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D41)-COUNTIF(A:A,"&lt;="&amp;D40)</f>
         <v>33</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>820</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D42)-COUNTIF(A:A,"&lt;="&amp;D41)</f>
         <v>18</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>840</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D43)-COUNTIF(A:A,"&lt;="&amp;D42)</f>
         <v>23</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
         <v>860</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D44)-COUNTIF(A:A,"&lt;="&amp;D43)</f>
         <v>19</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>880</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D45)-COUNTIF(A:A,"&lt;="&amp;D44)</f>
         <v>23</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>900</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D46)-COUNTIF(A:A,"&lt;="&amp;D45)</f>
         <v>11</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>920</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D47)-COUNTIF(A:A,"&lt;="&amp;D46)</f>
         <v>26</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>940</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D48)-COUNTIF(A:A,"&lt;="&amp;D47)</f>
         <v>8</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>960</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D49)-COUNTIF(A:A,"&lt;="&amp;D48)</f>
         <v>9</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>980</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D50)-COUNTIF(A:A,"&lt;="&amp;D49)</f>
         <v>16</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>1000</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D51)-COUNTIF(A:A,"&lt;="&amp;D50)</f>
         <v>20</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>1020</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D52)-COUNTIF(A:A,"&lt;="&amp;D51)</f>
         <v>18</v>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>1040</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D53)-COUNTIF(A:A,"&lt;="&amp;D52)</f>
         <v>15</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>1060</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D54)-COUNTIF(A:A,"&lt;="&amp;D53)</f>
         <v>28</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>1080</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D55)-COUNTIF(A:A,"&lt;="&amp;D54)</f>
         <v>35</v>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>1100</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D56)-COUNTIF(A:A,"&lt;="&amp;D55)</f>
         <v>25</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>1120</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D57)-COUNTIF(A:A,"&lt;="&amp;D56)</f>
         <v>26</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <v>1140</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D58)-COUNTIF(A:A,"&lt;="&amp;D57)</f>
         <v>23</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
         <v>1160</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D59)-COUNTIF(A:A,"&lt;="&amp;D58)</f>
         <v>28</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>1180</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D60)-COUNTIF(A:A,"&lt;="&amp;D59)</f>
         <v>13</v>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>1200</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D61)-COUNTIF(A:A,"&lt;="&amp;D60)</f>
         <v>17</v>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>1220</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D62)-COUNTIF(A:A,"&lt;="&amp;D61)</f>
         <v>7</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>1240</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D63)-COUNTIF(A:A,"&lt;="&amp;D62)</f>
         <v>15</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
         <v>1260</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D64)-COUNTIF(A:A,"&lt;="&amp;D63)</f>
         <v>13</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>1280</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D65)-COUNTIF(A:A,"&lt;="&amp;D64)</f>
         <v>3</v>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
         <v>1300</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D66)-COUNTIF(A:A,"&lt;="&amp;D65)</f>
         <v>15</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>1320</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D67)-COUNTIF(A:A,"&lt;="&amp;D66)</f>
         <v>7</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
         <v>1340</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="1">COUNTIF(A:A,"&lt;="&amp;D68)-COUNTIF(A:A,"&lt;="&amp;D67)</f>
+        <f>COUNTIF(A:A,"&lt;="&amp;D68)-COUNTIF(A:A,"&lt;="&amp;D67)</f>
         <v>12</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
         <v>1360</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D69)-COUNTIF(A:A,"&lt;="&amp;D68)</f>
         <v>5</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>1380</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D70)-COUNTIF(A:A,"&lt;="&amp;D69)</f>
         <v>5</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         <v>1400</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D71)-COUNTIF(A:A,"&lt;="&amp;D70)</f>
         <v>15</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>1420</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D72)-COUNTIF(A:A,"&lt;="&amp;D71)</f>
         <v>17</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
         <v>1440</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D73)-COUNTIF(A:A,"&lt;="&amp;D72)</f>
         <v>14</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>1460</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D74)-COUNTIF(A:A,"&lt;="&amp;D73)</f>
         <v>12</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>1480</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D75)-COUNTIF(A:A,"&lt;="&amp;D74)</f>
         <v>12</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>1500</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D76)-COUNTIF(A:A,"&lt;="&amp;D75)</f>
         <v>15</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>1520</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D77)-COUNTIF(A:A,"&lt;="&amp;D76)</f>
         <v>9</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1540</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D78)-COUNTIF(A:A,"&lt;="&amp;D77)</f>
         <v>18</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <v>1560</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D79)-COUNTIF(A:A,"&lt;="&amp;D78)</f>
         <v>6</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>1580</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D80)-COUNTIF(A:A,"&lt;="&amp;D79)</f>
         <v>7</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>1600</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D81)-COUNTIF(A:A,"&lt;="&amp;D80)</f>
         <v>10</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>1620</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D82)-COUNTIF(A:A,"&lt;="&amp;D81)</f>
         <v>8</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>1640</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D83)-COUNTIF(A:A,"&lt;="&amp;D82)</f>
         <v>6</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>1660</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D84)-COUNTIF(A:A,"&lt;="&amp;D83)</f>
         <v>11</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>1680</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D85)-COUNTIF(A:A,"&lt;="&amp;D84)</f>
         <v>11</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>1700</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D86)-COUNTIF(A:A,"&lt;="&amp;D85)</f>
         <v>18</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>1720</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D87)-COUNTIF(A:A,"&lt;="&amp;D86)</f>
         <v>8</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>1740</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D88)-COUNTIF(A:A,"&lt;="&amp;D87)</f>
         <v>6</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>1760</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D89)-COUNTIF(A:A,"&lt;="&amp;D88)</f>
         <v>11</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>1780</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D90)-COUNTIF(A:A,"&lt;="&amp;D89)</f>
         <v>14</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>1800</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D91)-COUNTIF(A:A,"&lt;="&amp;D90)</f>
         <v>16</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
         <v>1820</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D92)-COUNTIF(A:A,"&lt;="&amp;D91)</f>
         <v>13</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>1840</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D93)-COUNTIF(A:A,"&lt;="&amp;D92)</f>
         <v>9</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>1860</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D94)-COUNTIF(A:A,"&lt;="&amp;D93)</f>
         <v>11</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
         <v>1880</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D95)-COUNTIF(A:A,"&lt;="&amp;D94)</f>
         <v>13</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>1900</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D96)-COUNTIF(A:A,"&lt;="&amp;D95)</f>
         <v>9</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>1920</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D97)-COUNTIF(A:A,"&lt;="&amp;D96)</f>
         <v>9</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>1940</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D98)-COUNTIF(A:A,"&lt;="&amp;D97)</f>
         <v>8</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>1960</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D99)-COUNTIF(A:A,"&lt;="&amp;D98)</f>
         <v>12</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
         <v>1980</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D100)-COUNTIF(A:A,"&lt;="&amp;D99)</f>
         <v>21</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>2000</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D101)-COUNTIF(A:A,"&lt;="&amp;D100)</f>
         <v>11</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
         <v>2020</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D102)-COUNTIF(A:A,"&lt;="&amp;D101)</f>
         <v>13</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
         <v>2040</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D103)-COUNTIF(A:A,"&lt;="&amp;D102)</f>
         <v>33</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>2060</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D104)-COUNTIF(A:A,"&lt;="&amp;D103)</f>
         <v>14</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>2080</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D105)-COUNTIF(A:A,"&lt;="&amp;D104)</f>
         <v>16</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>2100</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D106)-COUNTIF(A:A,"&lt;="&amp;D105)</f>
         <v>26</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
         <v>2120</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D107)-COUNTIF(A:A,"&lt;="&amp;D106)</f>
         <v>13</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
         <v>2140</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D108)-COUNTIF(A:A,"&lt;="&amp;D107)</f>
         <v>17</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
         <v>2160</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D109)-COUNTIF(A:A,"&lt;="&amp;D108)</f>
         <v>14</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>2180</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D110)-COUNTIF(A:A,"&lt;="&amp;D109)</f>
         <v>22</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <v>2200</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D111)-COUNTIF(A:A,"&lt;="&amp;D110)</f>
         <v>16</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>2220</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D112)-COUNTIF(A:A,"&lt;="&amp;D111)</f>
         <v>26</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>2240</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D113)-COUNTIF(A:A,"&lt;="&amp;D112)</f>
         <v>12</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>2260</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D114)-COUNTIF(A:A,"&lt;="&amp;D113)</f>
         <v>17</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>2280</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D115)-COUNTIF(A:A,"&lt;="&amp;D114)</f>
         <v>25</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <v>2300</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D116)-COUNTIF(A:A,"&lt;="&amp;D115)</f>
         <v>23</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>2320</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D117)-COUNTIF(A:A,"&lt;="&amp;D116)</f>
         <v>17</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
         <v>2340</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D118)-COUNTIF(A:A,"&lt;="&amp;D117)</f>
         <v>16</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>2360</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D119)-COUNTIF(A:A,"&lt;="&amp;D118)</f>
         <v>21</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>2380</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D120)-COUNTIF(A:A,"&lt;="&amp;D119)</f>
         <v>22</v>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
         <v>2400</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D121)-COUNTIF(A:A,"&lt;="&amp;D120)</f>
         <v>21</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         <v>2420</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D122)-COUNTIF(A:A,"&lt;="&amp;D121)</f>
         <v>17</v>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
         <v>2440</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D123)-COUNTIF(A:A,"&lt;="&amp;D122)</f>
         <v>11</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
         <v>2460</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D124)-COUNTIF(A:A,"&lt;="&amp;D123)</f>
         <v>24</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>2480</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D125)-COUNTIF(A:A,"&lt;="&amp;D124)</f>
         <v>25</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>2500</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D126)-COUNTIF(A:A,"&lt;="&amp;D125)</f>
         <v>27</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>2520</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D127)-COUNTIF(A:A,"&lt;="&amp;D126)</f>
         <v>22</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
         <v>2540</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D128)-COUNTIF(A:A,"&lt;="&amp;D127)</f>
         <v>28</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>2560</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D129)-COUNTIF(A:A,"&lt;="&amp;D128)</f>
         <v>19</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
         <v>2580</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D130)-COUNTIF(A:A,"&lt;="&amp;D129)</f>
         <v>21</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>2600</v>
       </c>
       <c r="E131">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D131)-COUNTIF(A:A,"&lt;="&amp;D130)</f>
         <v>22</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>2620</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E159" si="2">COUNTIF(A:A,"&lt;="&amp;D132)-COUNTIF(A:A,"&lt;="&amp;D131)</f>
+        <f>COUNTIF(A:A,"&lt;="&amp;D132)-COUNTIF(A:A,"&lt;="&amp;D131)</f>
         <v>16</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
         <v>2640</v>
       </c>
       <c r="E133">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D133)-COUNTIF(A:A,"&lt;="&amp;D132)</f>
         <v>18</v>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>2660</v>
       </c>
       <c r="E134">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D134)-COUNTIF(A:A,"&lt;="&amp;D133)</f>
         <v>23</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>2680</v>
       </c>
       <c r="E135">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D135)-COUNTIF(A:A,"&lt;="&amp;D134)</f>
         <v>24</v>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
         <v>2700</v>
       </c>
       <c r="E136">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D136)-COUNTIF(A:A,"&lt;="&amp;D135)</f>
         <v>15</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>2720</v>
       </c>
       <c r="E137">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D137)-COUNTIF(A:A,"&lt;="&amp;D136)</f>
         <v>12</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>2740</v>
       </c>
       <c r="E138">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D138)-COUNTIF(A:A,"&lt;="&amp;D137)</f>
         <v>11</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
         <v>2760</v>
       </c>
       <c r="E139">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D139)-COUNTIF(A:A,"&lt;="&amp;D138)</f>
         <v>19</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
         <v>2780</v>
       </c>
       <c r="E140">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D140)-COUNTIF(A:A,"&lt;="&amp;D139)</f>
         <v>14</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>2800</v>
       </c>
       <c r="E141">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D141)-COUNTIF(A:A,"&lt;="&amp;D140)</f>
         <v>13</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>2820</v>
       </c>
       <c r="E142">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D142)-COUNTIF(A:A,"&lt;="&amp;D141)</f>
         <v>9</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
         <v>2840</v>
       </c>
       <c r="E143">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D143)-COUNTIF(A:A,"&lt;="&amp;D142)</f>
         <v>2</v>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
         <v>2860</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D144)-COUNTIF(A:A,"&lt;="&amp;D143)</f>
         <v>7</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         <v>2880</v>
       </c>
       <c r="E145">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D145)-COUNTIF(A:A,"&lt;="&amp;D144)</f>
         <v>15</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>2900</v>
       </c>
       <c r="E146">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D146)-COUNTIF(A:A,"&lt;="&amp;D145)</f>
         <v>14</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>2920</v>
       </c>
       <c r="E147">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D147)-COUNTIF(A:A,"&lt;="&amp;D146)</f>
         <v>9</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
         <v>2940</v>
       </c>
       <c r="E148">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D148)-COUNTIF(A:A,"&lt;="&amp;D147)</f>
         <v>19</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>2960</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D149)-COUNTIF(A:A,"&lt;="&amp;D148)</f>
         <v>4</v>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
         <v>2980</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D150)-COUNTIF(A:A,"&lt;="&amp;D149)</f>
         <v>7</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>3000</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D151)-COUNTIF(A:A,"&lt;="&amp;D150)</f>
         <v>6</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
         <v>3020</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D152)-COUNTIF(A:A,"&lt;="&amp;D151)</f>
         <v>9</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
         <v>3040</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D153)-COUNTIF(A:A,"&lt;="&amp;D152)</f>
         <v>6</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>3060</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D154)-COUNTIF(A:A,"&lt;="&amp;D153)</f>
         <v>4</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
         <v>3080</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D155)-COUNTIF(A:A,"&lt;="&amp;D154)</f>
         <v>7</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>3100</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D156)-COUNTIF(A:A,"&lt;="&amp;D155)</f>
         <v>8</v>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>3120</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D157)-COUNTIF(A:A,"&lt;="&amp;D156)</f>
         <v>6</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
         <v>3140</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D158)-COUNTIF(A:A,"&lt;="&amp;D157)</f>
         <v>5</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>3160</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,"&lt;="&amp;D159)-COUNTIF(A:A,"&lt;="&amp;D158)</f>
         <v>17</v>
       </c>
     </row>
@@ -2282,489 +2282,1140 @@
         <v>46</v>
       </c>
       <c r="D160">
-        <v>3200</v>
+        <v>3180</v>
       </c>
       <c r="E160">
-        <f>COUNTIF(A:A,"&gt;="&amp;D160)</f>
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <f>COUNTIF(A:A,"&lt;="&amp;D160)-COUNTIF(A:A,"&lt;="&amp;D159)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>50</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>3200</v>
+      </c>
+      <c r="E161">
+        <f>COUNTIF(A:A,"&lt;="&amp;D161)-COUNTIF(A:A,"&lt;="&amp;D160)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>55</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>3220</v>
+      </c>
+      <c r="E162">
+        <f>COUNTIF(A:A,"&lt;="&amp;D162)-COUNTIF(A:A,"&lt;="&amp;D161)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>60</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>3240</v>
+      </c>
+      <c r="E163">
+        <f>COUNTIF(A:A,"&lt;="&amp;D163)-COUNTIF(A:A,"&lt;="&amp;D162)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>69</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>3260</v>
+      </c>
+      <c r="E164">
+        <f>COUNTIF(A:A,"&lt;="&amp;D164)-COUNTIF(A:A,"&lt;="&amp;D163)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>64</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>3280</v>
+      </c>
+      <c r="E165">
+        <f>COUNTIF(A:A,"&lt;="&amp;D165)-COUNTIF(A:A,"&lt;="&amp;D164)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>69</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>3300</v>
+      </c>
+      <c r="E166">
+        <f>COUNTIF(A:A,"&lt;="&amp;D166)-COUNTIF(A:A,"&lt;="&amp;D165)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>74</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>3320</v>
+      </c>
+      <c r="E167">
+        <f>COUNTIF(A:A,"&lt;="&amp;D167)-COUNTIF(A:A,"&lt;="&amp;D166)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>78</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>3340</v>
+      </c>
+      <c r="E168">
+        <f>COUNTIF(A:A,"&lt;="&amp;D168)-COUNTIF(A:A,"&lt;="&amp;D167)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>83</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>3360</v>
+      </c>
+      <c r="E169">
+        <f>COUNTIF(A:A,"&lt;="&amp;D169)-COUNTIF(A:A,"&lt;="&amp;D168)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>87</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>3380</v>
+      </c>
+      <c r="E170">
+        <f>COUNTIF(A:A,"&lt;="&amp;D170)-COUNTIF(A:A,"&lt;="&amp;D169)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>83</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>3400</v>
+      </c>
+      <c r="E171">
+        <f>COUNTIF(A:A,"&lt;="&amp;D171)-COUNTIF(A:A,"&lt;="&amp;D170)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>74</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>3420</v>
+      </c>
+      <c r="E172">
+        <f>COUNTIF(A:A,"&lt;="&amp;D172)-COUNTIF(A:A,"&lt;="&amp;D171)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>83</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>3440</v>
+      </c>
+      <c r="E173">
+        <f>COUNTIF(A:A,"&lt;="&amp;D173)-COUNTIF(A:A,"&lt;="&amp;D172)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>92</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>3460</v>
+      </c>
+      <c r="E174">
+        <f>COUNTIF(A:A,"&lt;="&amp;D174)-COUNTIF(A:A,"&lt;="&amp;D173)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>97</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>3480</v>
+      </c>
+      <c r="E175">
+        <f>COUNTIF(A:A,"&lt;="&amp;D175)-COUNTIF(A:A,"&lt;="&amp;D174)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>83</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>3500</v>
+      </c>
+      <c r="E176">
+        <f>COUNTIF(A:A,"&lt;="&amp;D176)-COUNTIF(A:A,"&lt;="&amp;D175)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>78</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>3520</v>
+      </c>
+      <c r="E177">
+        <f>COUNTIF(A:A,"&lt;="&amp;D177)-COUNTIF(A:A,"&lt;="&amp;D176)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>69</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>3540</v>
+      </c>
+      <c r="E178">
+        <f>COUNTIF(A:A,"&lt;="&amp;D178)-COUNTIF(A:A,"&lt;="&amp;D177)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>64</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>3560</v>
+      </c>
+      <c r="E179">
+        <f>COUNTIF(A:A,"&lt;="&amp;D179)-COUNTIF(A:A,"&lt;="&amp;D178)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>69</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>3580</v>
+      </c>
+      <c r="E180">
+        <f>COUNTIF(A:A,"&lt;="&amp;D180)-COUNTIF(A:A,"&lt;="&amp;D179)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>64</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>3600</v>
+      </c>
+      <c r="E181">
+        <f>COUNTIF(A:A,"&lt;="&amp;D181)-COUNTIF(A:A,"&lt;="&amp;D180)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>60</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>3620</v>
+      </c>
+      <c r="E182">
+        <f>COUNTIF(A:A,"&lt;="&amp;D182)-COUNTIF(A:A,"&lt;="&amp;D181)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>55</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>3640</v>
+      </c>
+      <c r="E183">
+        <f>COUNTIF(A:A,"&lt;="&amp;D183)-COUNTIF(A:A,"&lt;="&amp;D182)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>50</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>3660</v>
+      </c>
+      <c r="E184">
+        <f>COUNTIF(A:A,"&lt;="&amp;D184)-COUNTIF(A:A,"&lt;="&amp;D183)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>46</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>3680</v>
+      </c>
+      <c r="E185">
+        <f>COUNTIF(A:A,"&lt;="&amp;D185)-COUNTIF(A:A,"&lt;="&amp;D184)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>50</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>3700</v>
+      </c>
+      <c r="E186">
+        <f>COUNTIF(A:A,"&lt;="&amp;D186)-COUNTIF(A:A,"&lt;="&amp;D185)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>60</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>3720</v>
+      </c>
+      <c r="E187">
+        <f>COUNTIF(A:A,"&lt;="&amp;D187)-COUNTIF(A:A,"&lt;="&amp;D186)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>74</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>3740</v>
+      </c>
+      <c r="E188">
+        <f>COUNTIF(A:A,"&lt;="&amp;D188)-COUNTIF(A:A,"&lt;="&amp;D187)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>87</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>3760</v>
+      </c>
+      <c r="E189">
+        <f>COUNTIF(A:A,"&lt;="&amp;D189)-COUNTIF(A:A,"&lt;="&amp;D188)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>74</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>3780</v>
+      </c>
+      <c r="E190">
+        <f>COUNTIF(A:A,"&lt;="&amp;D190)-COUNTIF(A:A,"&lt;="&amp;D189)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>55</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>3800</v>
+      </c>
+      <c r="E191">
+        <f>COUNTIF(A:A,"&lt;="&amp;D191)-COUNTIF(A:A,"&lt;="&amp;D190)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>50</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>3820</v>
+      </c>
+      <c r="E192">
+        <f>COUNTIF(A:A,"&lt;="&amp;D192)-COUNTIF(A:A,"&lt;="&amp;D191)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>69</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>3840</v>
+      </c>
+      <c r="E193">
+        <f>COUNTIF(A:A,"&lt;="&amp;D193)-COUNTIF(A:A,"&lt;="&amp;D192)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>78</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>3860</v>
+      </c>
+      <c r="E194">
+        <f>COUNTIF(A:A,"&lt;="&amp;D194)-COUNTIF(A:A,"&lt;="&amp;D193)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>87</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>3880</v>
+      </c>
+      <c r="E195">
+        <f>COUNTIF(A:A,"&lt;="&amp;D195)-COUNTIF(A:A,"&lt;="&amp;D194)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>92</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>3900</v>
+      </c>
+      <c r="E196">
+        <f>COUNTIF(A:A,"&lt;="&amp;D196)-COUNTIF(A:A,"&lt;="&amp;D195)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>111</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>3920</v>
+      </c>
+      <c r="E197">
+        <f>COUNTIF(A:A,"&lt;="&amp;D197)-COUNTIF(A:A,"&lt;="&amp;D196)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>115</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>3940</v>
+      </c>
+      <c r="E198">
+        <f>COUNTIF(A:A,"&lt;="&amp;D198)-COUNTIF(A:A,"&lt;="&amp;D197)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>111</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>3960</v>
+      </c>
+      <c r="E199">
+        <f>COUNTIF(A:A,"&lt;="&amp;D199)-COUNTIF(A:A,"&lt;="&amp;D198)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>101</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>3980</v>
+      </c>
+      <c r="E200">
+        <f>COUNTIF(A:A,"&lt;="&amp;D200)-COUNTIF(A:A,"&lt;="&amp;D199)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>97</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>4000</v>
+      </c>
+      <c r="E201">
+        <f>COUNTIF(A:A,"&lt;="&amp;D201)-COUNTIF(A:A,"&lt;="&amp;D200)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>87</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>4020</v>
+      </c>
+      <c r="E202">
+        <f>COUNTIF(A:A,"&lt;="&amp;D202)-COUNTIF(A:A,"&lt;="&amp;D201)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>97</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>4040</v>
+      </c>
+      <c r="E203">
+        <f>COUNTIF(A:A,"&lt;="&amp;D203)-COUNTIF(A:A,"&lt;="&amp;D202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>101</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>4060</v>
+      </c>
+      <c r="E204">
+        <f>COUNTIF(A:A,"&lt;="&amp;D204)-COUNTIF(A:A,"&lt;="&amp;D203)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>111</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>4080</v>
+      </c>
+      <c r="E205">
+        <f>COUNTIF(A:A,"&lt;="&amp;D205)-COUNTIF(A:A,"&lt;="&amp;D204)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>129</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>4100</v>
+      </c>
+      <c r="E206">
+        <f>COUNTIF(A:A,"&lt;="&amp;D206)-COUNTIF(A:A,"&lt;="&amp;D205)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>134</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>4120</v>
+      </c>
+      <c r="E207">
+        <f>COUNTIF(A:A,"&lt;="&amp;D207)-COUNTIF(A:A,"&lt;="&amp;D206)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>124</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>4140</v>
+      </c>
+      <c r="E208">
+        <f>COUNTIF(A:A,"&lt;="&amp;D208)-COUNTIF(A:A,"&lt;="&amp;D207)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>115</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>4160</v>
+      </c>
+      <c r="E209">
+        <f>COUNTIF(A:A,"&lt;="&amp;D209)-COUNTIF(A:A,"&lt;="&amp;D208)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>120</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>4180</v>
+      </c>
+      <c r="E210">
+        <f>COUNTIF(A:A,"&lt;="&amp;D210)-COUNTIF(A:A,"&lt;="&amp;D209)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>101</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>4200</v>
+      </c>
+      <c r="E211">
+        <f>COUNTIF(A:A,"&lt;="&amp;D211)-COUNTIF(A:A,"&lt;="&amp;D210)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>83</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>4220</v>
+      </c>
+      <c r="E212">
+        <f>COUNTIF(A:A,"&lt;="&amp;D212)-COUNTIF(A:A,"&lt;="&amp;D211)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>64</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>4240</v>
+      </c>
+      <c r="E213">
+        <f>COUNTIF(A:A,"&lt;="&amp;D213)-COUNTIF(A:A,"&lt;="&amp;D212)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>50</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>4260</v>
+      </c>
+      <c r="E214">
+        <f>COUNTIF(A:A,"&lt;="&amp;D214)-COUNTIF(A:A,"&lt;="&amp;D213)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>41</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>4280</v>
+      </c>
+      <c r="E215">
+        <f>COUNTIF(A:A,"&lt;="&amp;D215)-COUNTIF(A:A,"&lt;="&amp;D214)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>37</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>4300</v>
+      </c>
+      <c r="E216">
+        <f>COUNTIF(A:A,"&lt;="&amp;D216)-COUNTIF(A:A,"&lt;="&amp;D215)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>32</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>4320</v>
+      </c>
+      <c r="E217">
+        <f>COUNTIF(A:A,"&lt;="&amp;D217)-COUNTIF(A:A,"&lt;="&amp;D216)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>27</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>4340</v>
+      </c>
+      <c r="E218">
+        <f>COUNTIF(A:A,"&lt;="&amp;D218)-COUNTIF(A:A,"&lt;="&amp;D217)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>23</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>4360</v>
+      </c>
+      <c r="E219">
+        <f>COUNTIF(A:A,"&lt;="&amp;D219)-COUNTIF(A:A,"&lt;="&amp;D218)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>4380</v>
+      </c>
+      <c r="E220">
+        <f>COUNTIF(A:A,"&lt;="&amp;D220)-COUNTIF(A:A,"&lt;="&amp;D219)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>4400</v>
+      </c>
+      <c r="E221">
+        <f>COUNTIF(A:A,"&lt;="&amp;D221)-COUNTIF(A:A,"&lt;="&amp;D220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>4420</v>
+      </c>
+      <c r="E222">
+        <f>COUNTIF(A:A,"&lt;="&amp;D222)-COUNTIF(A:A,"&lt;="&amp;D221)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>23</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>4440</v>
+      </c>
+      <c r="E223">
+        <f>COUNTIF(A:A,"&lt;="&amp;D223)-COUNTIF(A:A,"&lt;="&amp;D222)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>27</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>4460</v>
+      </c>
+      <c r="E224">
+        <f>COUNTIF(A:A,"&lt;="&amp;D224)-COUNTIF(A:A,"&lt;="&amp;D223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>37</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>4480</v>
+      </c>
+      <c r="E225">
+        <f>COUNTIF(A:A,"&lt;="&amp;D225)-COUNTIF(A:A,"&lt;="&amp;D224)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>41</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>4500</v>
+      </c>
+      <c r="E226">
+        <f>COUNTIF(A:A,"&lt;="&amp;D226)-COUNTIF(A:A,"&lt;="&amp;D225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>32</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>4520</v>
+      </c>
+      <c r="E227">
+        <f>COUNTIF(A:A,"&lt;="&amp;D227)-COUNTIF(A:A,"&lt;="&amp;D226)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>23</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>4540</v>
+      </c>
+      <c r="E228">
+        <f>COUNTIF(A:A,"&lt;="&amp;D228)-COUNTIF(A:A,"&lt;="&amp;D227)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>4560</v>
+      </c>
+      <c r="E229">
+        <f>COUNTIF(A:A,"&lt;="&amp;D229)-COUNTIF(A:A,"&lt;="&amp;D228)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>23</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>4580</v>
+      </c>
+      <c r="E230">
+        <f>COUNTIF(A:A,"&lt;="&amp;D230)-COUNTIF(A:A,"&lt;="&amp;D229)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>27</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>4600</v>
+      </c>
+      <c r="E231">
+        <f>COUNTIF(A:A,"&lt;="&amp;D231)-COUNTIF(A:A,"&lt;="&amp;D230)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>32</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>4620</v>
+      </c>
+      <c r="E232">
+        <f>COUNTIF(A:A,"&lt;="&amp;D232)-COUNTIF(A:A,"&lt;="&amp;D231)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>37</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>4640</v>
+      </c>
+      <c r="E233">
+        <f>COUNTIF(A:A,"&lt;="&amp;D233)-COUNTIF(A:A,"&lt;="&amp;D232)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>41</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>4660</v>
+      </c>
+      <c r="E234">
+        <f>COUNTIF(A:A,"&lt;="&amp;D234)-COUNTIF(A:A,"&lt;="&amp;D233)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>46</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>4680</v>
+      </c>
+      <c r="E235">
+        <f>COUNTIF(A:A,"&lt;="&amp;D235)-COUNTIF(A:A,"&lt;="&amp;D234)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>50</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>4700</v>
+      </c>
+      <c r="E236">
+        <f>COUNTIF(A:A,"&lt;="&amp;D236)-COUNTIF(A:A,"&lt;="&amp;D235)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>55</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>4720</v>
+      </c>
+      <c r="E237">
+        <f>COUNTIF(A:A,"&lt;="&amp;D237)-COUNTIF(A:A,"&lt;="&amp;D236)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>60</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>4740</v>
+      </c>
+      <c r="E238">
+        <f>COUNTIF(A:A,"&lt;="&amp;D238)-COUNTIF(A:A,"&lt;="&amp;D237)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>64</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>4760</v>
+      </c>
+      <c r="E239">
+        <f>COUNTIF(A:A,"&lt;="&amp;D239)-COUNTIF(A:A,"&lt;="&amp;D238)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>69</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>4780</v>
+      </c>
+      <c r="E240">
+        <f>COUNTIF(A:A,"&lt;="&amp;D240)-COUNTIF(A:A,"&lt;="&amp;D239)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>74</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>4800</v>
+      </c>
+      <c r="E241">
+        <f>COUNTIF(A:A,"&lt;="&amp;D241)-COUNTIF(A:A,"&lt;="&amp;D240)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>78</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>4820</v>
+      </c>
+      <c r="E242">
+        <f>COUNTIF(A:A,"&lt;="&amp;D242)-COUNTIF(A:A,"&lt;="&amp;D241)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>87</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>4840</v>
+      </c>
+      <c r="E243">
+        <f>COUNTIF(A:A,"&lt;="&amp;D243)-COUNTIF(A:A,"&lt;="&amp;D242)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>92</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>4860</v>
+      </c>
+      <c r="E244">
+        <f>COUNTIF(A:A,"&lt;="&amp;D244)-COUNTIF(A:A,"&lt;="&amp;D243)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>97</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>4880</v>
+      </c>
+      <c r="E245">
+        <f>COUNTIF(A:A,"&lt;="&amp;D245)-COUNTIF(A:A,"&lt;="&amp;D244)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>115</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>4900</v>
+      </c>
+      <c r="E246">
+        <f>COUNTIF(A:A,"&lt;="&amp;D246)-COUNTIF(A:A,"&lt;="&amp;D245)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>120</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>4920</v>
+      </c>
+      <c r="E247">
+        <f>COUNTIF(A:A,"&lt;="&amp;D247)-COUNTIF(A:A,"&lt;="&amp;D246)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>129</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>4940</v>
+      </c>
+      <c r="E248">
+        <f>COUNTIF(A:A,"&lt;="&amp;D248)-COUNTIF(A:A,"&lt;="&amp;D247)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>138</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>4960</v>
+      </c>
+      <c r="E249">
+        <f>COUNTIF(A:A,"&lt;="&amp;D249)-COUNTIF(A:A,"&lt;="&amp;D248)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>152</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>4980</v>
+      </c>
+      <c r="E250">
+        <f>COUNTIF(A:A,"&lt;="&amp;D250)-COUNTIF(A:A,"&lt;="&amp;D249)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>185</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>5000</v>
+      </c>
+      <c r="E251">
+        <f>COUNTIF(A:A,"&lt;="&amp;D251)-COUNTIF(A:A,"&lt;="&amp;D250)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>189</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>5020</v>
+      </c>
+      <c r="E252">
+        <f>COUNTIF(A:A,"&lt;="&amp;D252)-COUNTIF(A:A,"&lt;="&amp;D251)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>235</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>5040</v>
+      </c>
+      <c r="E253">
+        <f>COUNTIF(A:A,"&gt;="&amp;D253)</f>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>374</v>
       </c>
